--- a/document/plan/프로젝트계획서.xlsx
+++ b/document/plan/프로젝트계획서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\세미프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MyMoodang\document\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4277FF-64AB-4A77-8FBE-C741AC262338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBF6680-D733-4750-A9BC-100B186B5FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,12 +765,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -819,15 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,60 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+      <selection activeCell="C19" sqref="C19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1202,75 +1202,75 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="44"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="45"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6">
         <v>44998</v>
       </c>
@@ -1327,225 +1327,234 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="42" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="42" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickBot="1"/>
     <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="39"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="85.5" customHeight="1" thickBot="1">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="102.75" customHeight="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="37"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="37"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -1562,15 +1571,6 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/document/plan/프로젝트계획서.xlsx
+++ b/document/plan/프로젝트계획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MyMoodang\document\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBF6680-D733-4750-A9BC-100B186B5FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D27898-9385-46FF-9DF4-7FFA61137E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -177,15 +177,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계, 관리자 페이지(회원 관리, 상품 관리, 통계 조회)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>각자 분배한 기능에 맞춰 화면 구현 시작, 서로 협업하여 프로그래밍 하기 위해 가독성과 통일성을 지키기 위한 명명규칙 정함(변수명, 주석처리 등), 팀원 간 의사소통을 통한 연결된 코드 구현 기능 집중</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DB 설계, 메인페이지, 장바구니, 결제 및 결제 상세 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 관리자 페이지(회원 관리, 상품 관리, 통계 조회, 배송 관리)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -765,27 +765,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -795,12 +858,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,63 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:J19"/>
+      <selection activeCell="C14" sqref="C14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1202,75 +1202,75 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="25"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="26"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6">
         <v>44998</v>
       </c>
@@ -1327,234 +1327,225 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickBot="1"/>
     <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="C17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" ht="85.5" customHeight="1" thickBot="1">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="2:10" ht="102.75" customHeight="1">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="13"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -1571,6 +1562,15 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/document/plan/프로젝트계획서.xlsx
+++ b/document/plan/프로젝트계획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MyMoodang\document\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D27898-9385-46FF-9DF4-7FFA61137E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA600E-7116-468C-9F25-3E6CCA67FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2556" yWindow="372" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계, 관리자 페이지(리뷰 관리, 주문내역 관리, 고객센터 관리)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>헬시 플레저란? 건강한과 기쁨을 합쳐 건강을 즐겁게 관리한다는 의미를 담고 있으며, 최근에 놀이처럼 즐겁고 재미있는 운동을 하거나 몸에 좋은 재료로 맛있게 만든 음식을 먹는 등 ‘지속 가능한 건강관리’를 하는 것입니다. 최근 기업들이 제로음료와 무가당, 저칼로리, 고단백 식단 같은 건강관리 식품을 MZ세대를 핵심 소비자 타겟으로 잡아 많은 상품들이 개발되고 있으며 실제로 국내 건강관리 시장 규모가 빠른 속도로 성장하고 있는 통계와 많은 상품들을 확인 할 수 있었습니다.
 저희는 이러한 통계를 보고 헬시플레저에 맞는 식품들을 전문적으로 판매하는 쇼핑몰을 만들어보는 것은 어떨까 라는 생각으로 이 프로젝트를 기획하게 되었습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -185,7 +181,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계, 관리자 페이지(회원 관리, 상품 관리, 통계 조회, 배송 관리)</t>
+    <t>DB 설계, 관리자 페이지(회원 관리, 상품 관리, 주문내역 관리, 통계 조회)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 관리자 페이지(리뷰 관리, 공지사항 관리, 1:1문의 관리)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -765,12 +765,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -819,15 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,60 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:J14"/>
+      <selection activeCell="C16" sqref="C16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1202,75 +1202,75 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="C6" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="44"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="45"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6">
         <v>44998</v>
       </c>
@@ -1327,225 +1327,234 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="23"/>
+      <c r="I11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="31"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickBot="1"/>
     <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="39"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="85.5" customHeight="1" thickBot="1">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="C21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="C22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="2:10" ht="102.75" customHeight="1">
+      <c r="B24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" spans="2:10" ht="102.75" customHeight="1">
-      <c r="B24" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="37"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="37"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -1562,15 +1571,6 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/document/plan/프로젝트계획서.xlsx
+++ b/document/plan/프로젝트계획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MyMoodang\document\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FA600E-7116-468C-9F25-3E6CCA67FAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339BA33-F117-45BC-A865-2AA22094BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="372" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계획표" sheetId="1" r:id="rId1"/>
@@ -181,11 +181,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계, 관리자 페이지(회원 관리, 상품 관리, 주문내역 관리, 통계 조회)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 설계, 관리자 페이지(리뷰 관리, 공지사항 관리, 1:1문의 관리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 관리자 메인 및 통계 페이지, 관리자 상품관리(CRUD, 검색 및 카테고리 필터링, 상품 사진 업로드 및 수정), 관리자 주문관리(주문 리스트 카테고리 필터링, 주문 상세조회, 전체 검색 조회, 배송 상태 수정), 관리자 회원관리(리스트 필터링 조회, 회원 상세조회, 회원 정보 수정), 관리자 접근 필터, 공지사항 이미지 업로드, 찜목록 추가</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -765,27 +765,90 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -795,12 +858,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,63 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,7 +1188,7 @@
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:J16"/>
+      <selection activeCell="C15" sqref="C15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1202,75 +1202,75 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="25"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="26"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6">
         <v>44998</v>
       </c>
@@ -1314,247 +1314,238 @@
         <v>45017</v>
       </c>
       <c r="H10" s="6">
-        <v>45044</v>
+        <v>45042</v>
       </c>
       <c r="I10" s="6">
-        <v>45044</v>
+        <v>45042</v>
       </c>
       <c r="J10" s="7">
-        <v>45044</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="134.25" customHeight="1" thickBot="1">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="22"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickBot="1"/>
     <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="C15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10" ht="85.5" customHeight="1" thickBot="1">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="34"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="32"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="2:10" ht="102.75" customHeight="1">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="13"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -1571,6 +1562,15 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/document/plan/프로젝트계획서.xlsx
+++ b/document/plan/프로젝트계획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\MyMoodang\document\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339BA33-F117-45BC-A865-2AA22094BD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6310ECC-D96F-43C6-A3EB-5CB7D30456DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DB 설계, 이메일 인증, 로그인 , 내 배송지 관리, 내 리뷰 관리, 내 구매목록 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 설계, 상품 조회, 상품 상세 조회, 리뷰 작성, 상품 필터링, 상품 검색</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -139,6 +135,46 @@
 고객의 상품 구매 촉구 및 고객 유지를 위한 여러가지 방안 설계
 판매 과정의 간소화, 찜 목록으로 고객의 리다이렉팅 유도
 고객의 참여도를 늘리기 위한 반응형 설문 추가(설문 시 쿠폰 발급)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오 오븐을 통한 와이어프레임(깔끔한 UI와 기능 설계)  
+ERDCloud를 통한 ERD 설계(요구사항 분석 및 개체 간의 관계를 정확하게 파악하여 적절한 데이터 베이스 설계)
+StarUML을 통한 유스케이스 다이어그램 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트의 계획보고서를 통해 설계 및 구현 뒤에 모든 기능의 테스트 및 디버깅을 마치고 실제 구현 기능을 통해 발표를 위한 자료 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 프로젝트 주제와 기능 구현 목표 확정  
+2) 주제에 맞는 세부적인 화면 구성 및 기능 회의 및 고안 후 컨펌                           
+3) 컨펌한 기능들에 대해서 팀원들 간 역할 분담 진행   </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 분배한 기능에 맞춰 화면 구현 시작, 서로 협업하여 프로그래밍 하기 위해 가독성과 통일성을 지키기 위한 명명규칙 정함(변수명, 주석처리 등), 팀원 간 의사소통을 통한 연결된 코드 구현 기능 집중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 메인페이지, 장바구니, 결제 및 결제 상세 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 관리자 페이지(리뷰 관리, 공지사항 관리, 1:1문의 관리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 회원가입, ID,PW 찾기, 내 문의 관리, 내 구매목록 관리, 내 정보 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 이메일 인증, 로그인 , 내 배송지 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계, 관리자 메인 및 통계 페이지, 관리자 상품관리(CRUD, 검색 및 카테고리 필터링, 상품 사진 업로드 및 수정), 관리자 주문관리(주문 리스트 카테고리 필터링, 주문 상세조회, 전체 검색 조회, 배송 상태 수정), 관리자 회원관리(리스트 필터링 조회, 회원 상세조회, 회원 정보 수정), 관리자 접근 필터, 이미지 업로드, 찜목록</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -149,43 +185,7 @@
 Development Language : JAVA 8 , HTML5, CSS3, JavaScript
 Design Tool : Kakao Oven, StarUML, ERDCloud
 형상관리 : Github
-API : 부트페이, DAUM 주소</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오 오븐을 통한 와이어프레임(깔끔한 UI와 기능 설계)  
-ERDCloud를 통한 ERD 설계(요구사항 분석 및 개체 간의 관계를 정확하게 파악하여 적절한 데이터 베이스 설계)
-StarUML을 통한 유스케이스 다이어그램 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트의 계획보고서를 통해 설계 및 구현 뒤에 모든 기능의 테스트 및 디버깅을 마치고 실제 구현 기능을 통해 발표를 위한 자료 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 프로젝트 주제와 기능 구현 목표 확정  
-2) 주제에 맞는 세부적인 화면 구성 및 기능 회의 및 고안 후 컨펌                           
-3) 컨펌한 기능들에 대해서 팀원들 간 역할 분담 진행   </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 설계, 회원가입, ID,PW 찾기, 내 문의 관리, 내 찜 목록 관리, 내 정보 관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>각자 분배한 기능에 맞춰 화면 구현 시작, 서로 협업하여 프로그래밍 하기 위해 가독성과 통일성을 지키기 위한 명명규칙 정함(변수명, 주석처리 등), 팀원 간 의사소통을 통한 연결된 코드 구현 기능 집중</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 설계, 메인페이지, 장바구니, 결제 및 결제 상세 페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 설계, 관리자 페이지(리뷰 관리, 공지사항 관리, 1:1문의 관리)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 설계, 관리자 메인 및 통계 페이지, 관리자 상품관리(CRUD, 검색 및 카테고리 필터링, 상품 사진 업로드 및 수정), 관리자 주문관리(주문 리스트 카테고리 필터링, 주문 상세조회, 전체 검색 조회, 배송 상태 수정), 관리자 회원관리(리스트 필터링 조회, 회원 상세조회, 회원 정보 수정), 관리자 접근 필터, 공지사항 이미지 업로드, 찜목록 추가</t>
+API : 카카오페이, DAUM 주소</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -765,12 +765,75 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -819,15 +882,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,60 +890,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,8 +1187,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -1202,75 +1202,75 @@
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="21.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="2:10" ht="21.75" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1"/>
     <row r="6" spans="2:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
+      <c r="C6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="2:10" ht="18" thickBot="1"/>
     <row r="8" spans="2:10">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32" t="s">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="44"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="45"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="6">
         <v>44998</v>
       </c>
@@ -1327,225 +1327,234 @@
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="42" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="31"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickBot="1"/>
     <row r="13" spans="2:10">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="39"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" ht="74.25" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="2:10" ht="74.25" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="C15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="74.25" customHeight="1">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="74.25" customHeight="1">
       <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="C17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="74.25" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="85.5" customHeight="1" thickBot="1">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:10" ht="122.25" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="2:10" ht="122.25" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" ht="122.25" customHeight="1">
       <c r="B23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
+      <c r="C23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="102.75" customHeight="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="C24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="37"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="37"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C24:J27"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C6:J6"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C13:J13"/>
     <mergeCell ref="C14:J14"/>
@@ -1562,15 +1571,6 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C15:J15"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C24:J27"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:J6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
